--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_87.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_87.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,614 +488,672 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_248</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.09838709677419355</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F#/4', 'B', 'E/5']]</t>
-        </is>
+          <t>jaah_49</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1417593198168738</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'D']]</t>
+          <t>[['F:7', 'Bb', 'Bb']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(127.431, 132.656)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(25.850181, 31.898979)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:44.740000', '0:00:47.140000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:07.020000', '0:00:13.540000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_56</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1377551020408163</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2589285714285714</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
+          <t>[['F:min/C', 'C', 'F:min/C']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(33.016, 39.805)]</t>
+          <t>[['E:min', 'B:maj', 'E:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(12.318208, 18.355396)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:45.580000', '0:00:49.600000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:21.420000', '0:01:30.040000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_206</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
-        </is>
+          <t>isophonics_48</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1764705882352941</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C#:maj/G#', 'G#:(3,5,b7,b9)', 'C#:maj']]</t>
+          <t>[['D', 'A', 'A'], ['E', 'A', 'A'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(22.6, 25.72)]</t>
+          <t>[['A', 'E', 'E'], ['B', 'E', 'E'], ['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(58.06, 60.62)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:01:25.437167', '0:01:31.834264'), ('0:01:41.389275', '0:01:45.127688'), ('0:01:22.290863', '0:01:30.185647')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:05.747000', '0:01:21.235000'), ('0:00:14.033000', '0:00:23.861000'), ('0:00:19.435000', '0:00:32.669000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.08749999999999999</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'D#:7/A#', 'G#'], ['A#/F', 'F:7', 'A#']]</t>
-        </is>
+          <t>isophonics_133</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.19375</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:7/A', 'A#:maj'], ['C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['D/3', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(40.4, 43.34), (271.22, 275.78)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(36.14, 42.12), (0.6, 9.94)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:57.251357', '0:01:13.909779')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:02:08.760000', '0:02:13.560000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_73</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.139764996907854</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>isophonics_156</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_294</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1310924369747899</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>[['A', 'A', 'A'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(20.56, 23.94)]</t>
+          <t>[['G/3', 'G', 'G'], ['G', 'C', 'G/3']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(19.13, 20.83)]</t>
+          <t>[('0:00:14.541510', '0:00:18.954550'), ('0:00:11.070127', '0:00:13.723731')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:01.366439', '0:00:05.255782'), ('0:00:22.020589', '0:00:24.598004')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1895161290322581</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D/3', 'G', 'D', 'D/2']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'A']]</t>
+          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(57.251357, 74.388469)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(39.724104, 47.769818)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:01:58.400000', '0:02:02.040000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2318840579710145</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4166666666666666</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(19.86, 22.32)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(8.74, 17.66)]</t>
+          <t>[('0:00:02.612267', '0:00:20.410362')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:58.080000', '0:01:09.440000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_166</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_67</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_191</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(9.92, 11.96)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(17.839297, 22.785147)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:00.300000', '0:00:10.760000'), ('0:01:26.280000', '0:01:35.680000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:00.680000', '0:00:10.700000'), ('0:01:25.700000', '0:01:34.320000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>mid</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>isophonics_280</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>isophonics_87</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07900136798905609</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:7', 'E', 'A'], ['E', 'E/3', 'A']]</t>
-        </is>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3513071895424837</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D'], ['A', 'A', 'D']]</t>
+          <t>[['E', 'B:7', 'E', 'B:7', 'E']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(65.956303, 75.755124), (27.610855, 30.035034)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(66.427052, 71.593492), (59.508331, 64.685555)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:01.683832', '0:01:11.056785')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:07.560000', '0:00:20.920000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_77</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2534722222222222</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(20.04, 23.45)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(12.86, 25.02)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:01:59.320000', '0:02:01.920000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:24.860000', '0:00:52.580000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_274</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3666666666666666</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['Ab', 'Db', 'Ab', 'Db']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(117.68, 119.48)]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(68.98, 87.2)]</t>
+          <t>[('0:00:03.129454', '0:00:05.822970')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4833333333333333</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G', 'C/5', 'G', 'C/5']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(59.182426, 66.310952)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(138.8, 145.8)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:00:06.300000', '0:01:53.780000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:05', '0:01:54.060000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_159</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_127</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(47.34, 52.74)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(46.06, 51.04)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:16.560000', '0:00:45.260000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1517241379310345</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7/F', 'F:min']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(14.92, 20.76)]</t>
+          <t>[('0:00:11', '0:01:06.820000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:11.940000', '0:01:07.800000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3809523809523809</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(57.5, 59.68)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(71.56, 80.0)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_73</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_6</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3214285714285714</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(65.2, 67.5)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(0.279, 16.531)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:01.440000', '0:02:10.840000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:00.360000', '0:02:02.640000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
